--- a/data/outputs/OR_altmetric/37.xlsx
+++ b/data/outputs/OR_altmetric/37.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE138"/>
+  <dimension ref="A1:CF138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1050,6 +1055,9 @@
       </c>
       <c r="CE2" t="n">
         <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -1298,6 +1306,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1566,6 +1577,9 @@
       </c>
       <c r="CE4" t="n">
         <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -1820,6 +1834,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2071,6 +2088,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2320,6 +2340,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2573,6 +2596,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2830,6 +2856,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3085,6 +3114,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3342,6 +3374,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3595,6 +3630,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3855,6 +3893,9 @@
       </c>
       <c r="CE13" t="n">
         <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
@@ -4117,6 +4158,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>7.83</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4381,6 +4425,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
@@ -4643,6 +4690,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4894,6 +4944,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5146,6 +5199,9 @@
       </c>
       <c r="CE18" t="n">
         <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
@@ -5394,6 +5450,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5647,6 +5706,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5899,6 +5961,9 @@
       </c>
       <c r="CE21" t="n">
         <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
@@ -6153,6 +6218,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6404,6 +6472,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6657,6 +6728,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6910,6 +6984,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7163,6 +7240,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7408,6 +7488,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7669,6 +7752,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7924,6 +8010,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8181,6 +8270,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8432,6 +8524,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8704,6 +8799,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="33">
@@ -8962,6 +9060,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9219,6 +9320,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9484,6 +9588,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9760,6 +9867,9 @@
       </c>
       <c r="CE36" t="n">
         <v>0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="37">
@@ -10018,6 +10128,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10271,6 +10384,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10516,6 +10632,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10765,6 +10884,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11020,6 +11142,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11269,6 +11394,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11516,6 +11644,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11769,6 +11900,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12021,6 +12155,9 @@
       </c>
       <c r="CE45" t="n">
         <v>0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
@@ -12283,6 +12420,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12539,6 +12679,9 @@
       </c>
       <c r="CE47" t="n">
         <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
@@ -12797,6 +12940,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13072,6 +13218,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13321,6 +13470,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13567,6 +13719,9 @@
       </c>
       <c r="CE51" t="n">
         <v>0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
@@ -13817,6 +13972,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14090,6 +14248,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14355,6 +14516,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14627,6 +14791,9 @@
       </c>
       <c r="CE55" t="n">
         <v>0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
@@ -14891,6 +15058,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15166,6 +15336,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15417,6 +15590,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15677,6 +15853,9 @@
       </c>
       <c r="CE59" t="n">
         <v>0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -15921,6 +16100,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16182,6 +16364,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16451,6 +16636,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16715,6 +16903,9 @@
       </c>
       <c r="CE63" t="n">
         <v>0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="64">
@@ -16968,6 +17159,9 @@
       </c>
       <c r="CE64" t="n">
         <v>0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="65">
@@ -17214,6 +17408,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17471,6 +17668,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17728,6 +17928,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17985,6 +18188,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18242,6 +18448,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18491,6 +18700,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18747,6 +18959,9 @@
       </c>
       <c r="CE71" t="n">
         <v>0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="72">
@@ -19009,6 +19224,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19266,6 +19484,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19523,6 +19744,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19775,6 +19999,9 @@
       </c>
       <c r="CE75" t="n">
         <v>0</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="76">
@@ -20025,6 +20252,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -20280,6 +20510,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20533,6 +20766,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20800,6 +21036,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -21055,6 +21294,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -21315,6 +21557,9 @@
       </c>
       <c r="CE81" t="n">
         <v>0</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="82">
@@ -21577,6 +21822,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21838,6 +22086,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -22094,6 +22345,9 @@
       </c>
       <c r="CE84" t="n">
         <v>0</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="85">
@@ -22348,6 +22602,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22599,6 +22856,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22866,6 +23126,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -23119,6 +23382,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -23372,6 +23638,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23629,6 +23898,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23880,6 +24152,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -24135,6 +24410,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -24395,6 +24673,9 @@
       </c>
       <c r="CE93" t="n">
         <v>0</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="94">
@@ -24641,6 +24922,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24894,6 +25178,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -25146,6 +25433,9 @@
       </c>
       <c r="CE96" t="n">
         <v>0</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="97">
@@ -25412,6 +25702,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -25655,6 +25948,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25908,6 +26204,9 @@
         <v>0</v>
       </c>
       <c r="CE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26153,6 +26452,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -26410,6 +26712,9 @@
         <v>0</v>
       </c>
       <c r="CE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26665,6 +26970,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26922,6 +27230,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -27179,6 +27490,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -27444,6 +27758,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -27705,6 +28022,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27972,6 +28292,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -28231,6 +28554,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -28482,6 +28808,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -28735,6 +29064,9 @@
         <v>0</v>
       </c>
       <c r="CE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28980,6 +29312,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -29231,6 +29566,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -29484,6 +29822,9 @@
         <v>0</v>
       </c>
       <c r="CE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29739,6 +30080,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>12.33</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29999,6 +30343,9 @@
       </c>
       <c r="CE115" t="n">
         <v>0</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="116">
@@ -30249,6 +30596,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -30498,6 +30848,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -30743,6 +31096,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -31000,6 +31356,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -31249,6 +31608,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -31508,6 +31870,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -31755,6 +32120,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -32018,6 +32386,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -32271,6 +32642,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32516,6 +32890,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -32765,6 +33142,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33002,6 +33382,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -33247,6 +33630,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -33492,6 +33878,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -33744,6 +34133,9 @@
       </c>
       <c r="CE130" t="n">
         <v>0</v>
+      </c>
+      <c r="CF130" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="131">
@@ -33982,6 +34374,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -34230,6 +34625,9 @@
       </c>
       <c r="CE132" t="n">
         <v>0</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="133">
@@ -34476,6 +34874,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -34717,6 +35118,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34980,6 +35384,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -35245,6 +35652,9 @@
         <v>0</v>
       </c>
       <c r="CE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35486,6 +35896,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -35733,6 +36146,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
